--- a/03_tuning_results/c_TSP_tuning_details.xlsx
+++ b/03_tuning_results/c_TSP_tuning_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>DT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>RF</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>GBRT</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>XGBoost</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>KM</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>NN</t>
         </is>
@@ -498,35 +503,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>GridSearchCV</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>RandomizedSearchCV</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>RandomizedSearchCV</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>RandomizedSearchCV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>GridSearchCV</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>GridSearchCV</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>GridSearchCV</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>GridSearchCV</t>
         </is>
@@ -545,24 +555,27 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
         <v>50</v>
       </c>
       <c r="F3" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" t="n">
         <v>25</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>54</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>24</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>36</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>120</v>
       </c>
     </row>
@@ -574,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1m, 16s</t>
+          <t>39s</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -584,37 +597,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1m, 15s</t>
+          <t>38m, 29s</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25m, 32s</t>
+          <t>41s</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>34m, 7s</t>
+          <t>14m, 10s</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23m, 34s</t>
+          <t>19m, 46s</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1m, 52s</t>
+          <t>11m, 51s</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>43m, 23s</t>
+          <t>1m, 39s</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2h, 57m</t>
+          <t>35m, 37s</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1h, 37m</t>
         </is>
       </c>
     </row>
@@ -636,37 +654,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4m, 7s</t>
+          <t>23m, 55s</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1h, 38m</t>
+          <t>2m, 13s</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2h, 9m</t>
+          <t>54m, 22s</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1h, 27m</t>
+          <t>1h, 14m</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6m, 22s</t>
+          <t>44m, 3s</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1h, 46m</t>
+          <t>5m, 47s</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11h, 42m</t>
+          <t>1h, 42m</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>6h, 26m</t>
         </is>
       </c>
     </row>
@@ -678,7 +701,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4m, 22s</t>
+          <t>2m, 12s</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -688,37 +711,42 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3s</t>
+          <t>15s</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20s</t>
+          <t>2s</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10s</t>
+          <t>11s</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2m, 21s</t>
+          <t>6s</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>1m, 38s</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>2s</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1h, 2m</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>24s</t>
+          <t>36m, 22s</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>16s</t>
         </is>
       </c>
     </row>
